--- a/DATABASE.xlsx
+++ b/DATABASE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Klein\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS FACULDADE E CURSOS\PROJ_ROCKY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32021071-FE6B-42CE-91F8-815B9903842C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56058F-C8E9-4747-9C6C-557145232BFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -182,16 +182,16 @@
     <t>MEDIA DE VENDAS NO ANO</t>
   </si>
   <si>
-    <t>NRO DE VENDAS</t>
-  </si>
-  <si>
-    <t>RECEITA</t>
-  </si>
-  <si>
     <t>VALOR</t>
   </si>
   <si>
     <t>TOTAL VENDAS</t>
+  </si>
+  <si>
+    <t>NRO VENDAS</t>
+  </si>
+  <si>
+    <t>RENDA</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1150,7 +1152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1495,7 +1499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1612,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1622,21 +1628,21 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>433</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
-        <v>15447000</v>
+        <v>16030000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1652,90 +1658,90 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="C5" s="1">
-        <v>13586000</v>
+        <v>15447000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="C6" s="1">
-        <v>8086000</v>
+        <v>13586000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
-        <v>5493000</v>
+        <v>8086000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
-        <v>2403000</v>
+        <v>6374000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
-        <v>16030000</v>
+        <v>5493000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
-        <v>6374000</v>
+        <v>2403000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
-        <v>1418400</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>1430000</v>
+        <v>1418400</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1758,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1772,10 +1778,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
